--- a/test cases/messenger/case 10/caller_ipv6.xlsx
+++ b/test cases/messenger/case 10/caller_ipv6.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\WebRTC_Testbench\test cases\Messenger\case 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3D0D4496-AD9D-4376-A9C6-7FA0D411B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC40ED1D-9EF9-4C92-BCF8-06528981C082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="caller_ipv6." sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'caller_ipv6.'!$A$1:$Q$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'caller_ipv6.'!$A$1:$T$70</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="288">
   <si>
     <t>Address A</t>
   </si>
@@ -743,12 +743,156 @@
   </si>
   <si>
     <t>497 bytes</t>
+  </si>
+  <si>
+    <t>69 IP addresses.</t>
+  </si>
+  <si>
+    <t>Not found: ::</t>
+  </si>
+  <si>
+    <t>China Mobile Communications Group Co., Ltd.: 2409:8180:404:26aa:dc6a:38da:cfaf:fd09</t>
+  </si>
+  <si>
+    <t>ATT-INTERNET4: 2600:381:435a:b456:d0cc:4798:24be:fc67</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2601:19b:80:c980:1486:4e93:69f:b88</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2601:19b:80:c980:2533:49af:4635:af35</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2601:19b:80:c980:956f:39c4:4577:2e51</t>
+  </si>
+  <si>
+    <t>MICROSOFT-CORP-MSN-AS-BLOCK: 2603:1036:903:4::8</t>
+  </si>
+  <si>
+    <t>Not found: fd74:6572:6d6e:7573:c:42ea:30d3:3fe7</t>
+  </si>
+  <si>
+    <t>Not found: fd74:6572:6d6e:7573:d:42ea:30d3:3fe7</t>
+  </si>
+  <si>
+    <t>Not found: fe80::1553:a368:5d3e:e056</t>
+  </si>
+  <si>
+    <t>Not found: fe80::1816:8f60:268e:615a</t>
+  </si>
+  <si>
+    <t>Not found: fe80::50cb:b0ff:fe91:5f1f</t>
+  </si>
+  <si>
+    <t>Not found: fe80::50cb:b0ff:fe91:5fe0</t>
+  </si>
+  <si>
+    <t>Not found: fe80::86d:ec8e:8a07:c147</t>
+  </si>
+  <si>
+    <t>Not found: fe80::c01:7d73:f224:7820</t>
+  </si>
+  <si>
+    <t>Not found: fe80::cb9:ba1a:bea0:e5c9</t>
+  </si>
+  <si>
+    <t>Not found: fe80::deeb:69ff:fe0a:884d</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ff00:b5ad</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ff24:7820</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ff35:af35</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ffba:9d29</t>
+  </si>
+  <si>
+    <t>Not found: ff02::16</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:17:face:b00c:0:24d9</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f212:1c6:face:b00c:0:74fd</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f212:ca:face:b00c:0:74fd</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f272:ce:face:b00c:0:74fd</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f272:d0:face:b00c:0:553e</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ff77:2e51</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2001:558:feed::1</t>
+  </si>
+  <si>
+    <t>Akamai International B.V.: 2600:1401:c000::1727:2f0b</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 2620:149:a41:109::7</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:e:face:b00c:0:2</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ff9f:b88</t>
+  </si>
+  <si>
+    <t>MICROSOFT-CORP-MSN-AS-BLOCK: 2603:1006:2::2</t>
+  </si>
+  <si>
+    <t>MICROSOFT-CORP-MSN-AS-BLOCK: 2603:1036:302:4094::2</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 2620:149:a41:100::9</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 2620:149:a41:109::b</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:12:face:b00c:0:8e</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:d:face:b00c:0:6206</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f031:6:face:b00c:0:24d9</t>
+  </si>
+  <si>
+    <t>Not found: fd74:6572:6d6e:7573:c:d91a:b35a:babd</t>
+  </si>
+  <si>
+    <t>Not found: fd74:6572:6d6e:7573:d:d91a:b35a:babd</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1</t>
+  </si>
+  <si>
+    <t>Not found: ff02::fb</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:2</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ffa0:e5c9</t>
+  </si>
+  <si>
+    <t>Not found: ff02::2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1341,11 +1485,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
@@ -1355,6 +1496,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1549,16 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1711,3659 +1867,4058 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="4" customWidth="1"/>
+    <col min="4" max="18" width="8.88671875" style="4"/>
+    <col min="19" max="19" width="9.88671875" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="S1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>75.401094000000001</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="G3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>74.388868000000002</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="G4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>74.389347999999998</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>74.389330999999999</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>63.307634999999998</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>3.0196999999999998</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="S6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>32.079416000000002</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>46.351999999999997</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="S7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>9</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>22.04364</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>31.211600000000001</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="S8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>8</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>22.045321000000001</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>45.2973</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="S9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>22.045339999999999</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>45.2973</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="S10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>4</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>22.045300999999998</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <v>2.0099</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="S11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>29</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>29</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>22.045280999999999</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>36.231200000000001</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="S12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="G13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>32.079230000000003</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <v>46.351799999999997</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="S13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>26</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>13</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>13</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>22.043620000000001</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>56.379199999999997</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="S14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>25</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <v>14</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>11</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>22.045241000000001</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>60.4026</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="S15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>23</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>13</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>10</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>22.045262000000001</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <v>60.404299999999999</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="S16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>4</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>4</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>22.045221999999999</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <v>5.0202</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="S17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>129</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="G18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>52</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>77</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>22.045202</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="1">
         <v>60.4114</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="S18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="G19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <v>2</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>2</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>76.395140999999995</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>4.0585000000000004</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="S19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="G20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>32.078899</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="G21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
         <v>19</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>19</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>74.389675999999994</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>1.0066999999999999</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="S21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="G22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
         <v>7</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>5</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>75.396440999999996</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="4">
         <v>4.3E-3</v>
       </c>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="S22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>129</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="G23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
         <v>73</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>56</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>75.390401999999995</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="4">
         <v>7.0681000000000003</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="S23" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>102</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="G24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>74</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>28</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>77.411767999999995</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="1">
         <v>5.0617999999999999</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="S24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>34</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <v>20</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>14</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>75.404208999999994</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>2.0133000000000001</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="S25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="G26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <v>76.390068999999997</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="G27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
         <v>2</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>2</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>22.036923999999999</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="S27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="G28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
         <v>4</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>2</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>32.078938999999998</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="4">
         <v>5.0389999999999997</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="S28" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="G29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <v>2</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>1</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>43.180373000000003</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="S29" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="G30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
         <v>9</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="4">
         <v>9</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
         <v>43.181483999999998</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="4">
         <v>35.247799999999998</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="S30" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
         <v>74</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="G31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
         <v>38</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="4">
         <v>36</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
         <v>7.0105490000000001</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="4">
         <v>40.192399999999999</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="S31" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
         <v>68</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="G32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>38</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>30</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>22.037096999999999</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="4">
         <v>21.1447</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="S32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>343</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="G33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
         <v>185</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>158</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>12.020782000000001</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>49.279400000000003</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="S33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="G34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>1</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>22.043679999999998</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="S34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="G35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
         <v>3</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>2</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>26.060133</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="S35" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>82</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="G36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
         <v>47</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>35</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <v>4.0042869999999997</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="1">
         <v>79.451300000000003</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q36" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="S36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>8</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="G37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
         <v>4</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>4</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>22.045030000000001</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <v>1.0091000000000001</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="S37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>8</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="G38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
         <v>4</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>4</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>22.045074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1">
         <v>1.0092000000000001</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="S38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
         <v>5448</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
+      <c r="G39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
         <v>2876</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <v>2572</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>22.044986999999999</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1">
         <v>54.364699999999999</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="S39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>52</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
+      <c r="G40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
         <v>27</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>25</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>22.044965999999999</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>54.3675</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="P40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="Q40" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="S40" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G41">
-        <v>-1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="G41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
         <v>5</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="4">
         <v>4</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="4">
         <v>44.185589</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="P41"/>
-      <c r="Q41"/>
-    </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="S41" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>6</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="G42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
         <v>6</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2" t="s">
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>64.312321999999995</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>8.0579000000000001</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="P42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q42" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="S42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>14</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
+      <c r="G43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
         <v>14</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2" t="s">
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>22.043178999999999</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1">
         <v>57.415999999999997</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="S43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
         <v>16</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
+      <c r="G44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
         <v>16</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>22.045622999999999</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <v>49.322800000000001</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="P44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="Q44" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="S44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="2">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>16</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
+      <c r="G45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
         <v>16</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <v>22.045649000000001</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1">
         <v>49.322800000000001</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="P45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q45" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="S45" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
         <v>8</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="G46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
         <v>8</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2" t="s">
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>22.045604000000001</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1">
         <v>44.281999999999996</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="P46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="Q46" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="S46" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="2">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
         <v>60</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
+      <c r="G47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
         <v>60</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2" t="s">
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>22.045559999999998</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="1">
         <v>57.4131</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="P47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="S47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G48">
-        <v>-1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48">
+      <c r="G48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
         <v>10</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="4">
         <v>10</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="4">
         <v>67.342860000000002</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="4">
         <v>15.1158</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="S48" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
         <v>14</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
+      <c r="G49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
         <v>14</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2" t="s">
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>22.043659999999999</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <v>57.415500000000002</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q49" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="S49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
         <v>8</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
+      <c r="G50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
         <v>8</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2" t="s">
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>22.045728</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1">
         <v>45.296799999999998</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="P50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="S50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
         <v>8</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
+      <c r="G51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
         <v>8</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2" t="s">
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>22.045748</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>45.296900000000001</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="P51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q51" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="S51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
         <v>4</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
+      <c r="G52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
         <v>4</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2" t="s">
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>22.045708000000001</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>2.0097999999999998</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="P52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="S52" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
         <v>34</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
+      <c r="G53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
         <v>34</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2" t="s">
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>22.045681999999999</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>57.412999999999997</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="P53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="Q53" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="S53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
         <v>143</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G54">
-        <v>-1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="G54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
         <v>74</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="4">
         <v>69</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="4">
         <v>22.043718999999999</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="4">
         <v>60.414900000000003</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="S54" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
         <v>77</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G55">
-        <v>-1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55">
+      <c r="G55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
         <v>77</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
         <v>87.460899999999995</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="S55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
         <v>8</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56">
+      <c r="G56" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
         <v>8</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="4">
         <v>74.390251000000006</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="4">
         <v>13.0707</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q56" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="S56" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
         <v>196</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G57">
-        <v>-1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="G57" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
         <v>98</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="4">
         <v>98</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="4">
         <v>6.0999999999999999E-5</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="4">
         <v>87.462400000000002</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q57" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="S57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
         <v>8</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G58">
-        <v>-1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58">
+      <c r="G58" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
         <v>8</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="4">
         <v>74.390214</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="4">
         <v>13.0707</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="S58" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G59">
-        <v>-1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59">
+      <c r="G59" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
         <v>1</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="4">
         <v>79.457984999999994</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G60">
-        <v>-1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60">
+      <c r="G60" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
         <v>7</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="4">
         <v>6</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="4">
         <v>8.01431</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="4">
         <v>72.424599999999998</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q60" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="S60" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
         <v>2</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G61">
-        <v>-1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="G61" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
         <v>2</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="4">
         <v>75.399405000000002</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="4">
         <v>1.6000000000000001E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="S61" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G62">
-        <v>-1</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="G62" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
         <v>1</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="4">
         <v>75.390277999999995</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
         <v>8</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G63">
-        <v>-1</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63">
+      <c r="G63" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
         <v>8</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="4">
         <v>63.307526000000003</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="4">
         <v>13.083399999999999</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="S63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G64">
-        <v>-1</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64">
+      <c r="G64" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
         <v>1</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="4">
         <v>74.388920999999996</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
         <v>23</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G65">
-        <v>-1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="G65" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
         <v>23</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="4">
         <v>74.389658999999995</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="4">
         <v>13.072699999999999</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="S65" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
         <v>31</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G66">
-        <v>-1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66">
+      <c r="G66" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
         <v>16</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="4">
         <v>15</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="4">
         <v>75.39264</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="4">
         <v>4.0673000000000004</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="Q66" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="S66" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
         <v>4</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G67">
-        <v>-1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67">
+      <c r="G67" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
         <v>4</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="4">
         <v>27.069590000000002</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="4">
         <v>50.350099999999998</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="Q67" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="S67" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
         <v>27</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G68">
-        <v>-1</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68">
+      <c r="G68" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
         <v>27</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="4">
         <v>1.000999</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="4">
         <v>86.459900000000005</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="Q68" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="S68" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
         <v>1</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G69">
-        <v>-1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69">
+      <c r="G69" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
         <v>1</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" t="s">
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="4">
         <v>75.400869999999998</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G70">
-        <v>-1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="G70" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
         <v>1</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="4">
         <v>74.390885999999995</v>
       </c>
-      <c r="O70">
-        <v>0</v>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q70">
+  <autoFilter ref="A1:T70" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
-      <filters>
-        <filter val="2a03:2880:f031:6:face:b00c:0:24d9"/>
-        <filter val="2a03:2880:f07e:12:face:b00c:0:8e"/>
-        <filter val="2a03:2880:f07e:17:face:b00c:0:24d9"/>
-        <filter val="2a03:2880:f07e:d:face:b00c:0:6206"/>
-        <filter val="2a03:2880:f07e:e:face:b00c:0:2"/>
-        <filter val="2a03:2880:f212:1c6:face:b00c:0:74fd"/>
-        <filter val="2a03:2880:f212:ca:face:b00c:0:74fd"/>
-        <filter val="2a03:2880:f272:ce:face:b00c:0:74fd"/>
-        <filter val="2a03:2880:f272:d0:face:b00c:0:553e"/>
-      </filters>
+      <colorFilter dxfId="0"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q70">
-      <sortCondition ref="A1:A70"/>
-    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q70">
     <sortCondition ref="C1:C70"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>